--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYCG\SVN\trunk\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B5500-EAED-4C03-9ED8-69EF2BBDCE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,18 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>cg</author>
   </authors>
   <commentList>
-    <comment ref="A81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>cg:</t>
@@ -39,7 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="SimSun"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Key</t>
   </si>
@@ -87,6 +81,9 @@
     <t>70_xiaoxiamiju</t>
   </si>
   <si>
+    <t>70_小虾米居</t>
+  </si>
+  <si>
     <t>小虾米居</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
     <t>01_heluokezhan</t>
   </si>
   <si>
+    <t>10_河洛客栈</t>
+  </si>
+  <si>
     <t>河洛客栈</t>
   </si>
   <si>
@@ -108,497 +108,578 @@
     <t>00_hufeiju</t>
   </si>
   <si>
+    <t>00_胡斐居</t>
+  </si>
+  <si>
     <t>胡斐居</t>
   </si>
   <si>
     <t>59_tianboguangju</t>
   </si>
   <si>
+    <t>59_田伯光居</t>
+  </si>
+  <si>
     <t>田伯光居</t>
   </si>
   <si>
     <t>49_yaowangzhuang</t>
   </si>
   <si>
+    <t>49_药王庄</t>
+  </si>
+  <si>
     <t>药王庄</t>
   </si>
   <si>
     <t>64_nanxianju</t>
   </si>
   <si>
+    <t>64_南贤居</t>
+  </si>
+  <si>
     <t>南贤居</t>
   </si>
   <si>
     <t>50_yanjiju</t>
   </si>
   <si>
+    <t>50_阎基居</t>
+  </si>
+  <si>
     <t>阎基居</t>
   </si>
   <si>
     <t>52_yanziwu</t>
   </si>
   <si>
+    <t>52_燕子坞</t>
+  </si>
+  <si>
     <t>燕子坞</t>
   </si>
   <si>
     <t>63_tianningsi</t>
   </si>
   <si>
+    <t>63_天宁寺</t>
+  </si>
+  <si>
     <t>天宁寺</t>
   </si>
   <si>
     <t>55_meizhuang</t>
   </si>
   <si>
+    <t>55_梅庄</t>
+  </si>
+  <si>
     <t>梅庄</t>
   </si>
   <si>
     <t>56_fuweibiaoju</t>
   </si>
   <si>
+    <t>56_福威镖局</t>
+  </si>
+  <si>
     <t>福威镖局</t>
   </si>
   <si>
     <t>58_hengshanpai</t>
   </si>
   <si>
+    <t>58_衡山派</t>
+  </si>
+  <si>
     <t>衡山派</t>
   </si>
   <si>
     <t>47_yidengju</t>
   </si>
   <si>
+    <t>47_一灯居</t>
+  </si>
+  <si>
     <t>一灯居</t>
   </si>
   <si>
     <t>21_heilongtan</t>
   </si>
   <si>
+    <t>21_黑龙潭</t>
+  </si>
+  <si>
     <t>黑龙潭</t>
   </si>
   <si>
     <t>48_tiezhangshan</t>
   </si>
   <si>
+    <t>48_铁掌山</t>
+  </si>
+  <si>
     <t>铁掌山</t>
   </si>
   <si>
     <t>45_chengyingju</t>
   </si>
   <si>
+    <t>45_程英居</t>
+  </si>
+  <si>
     <t>程英居</t>
   </si>
   <si>
     <t>37_wudujiao</t>
   </si>
   <si>
+    <t>37_五毒教</t>
+  </si>
+  <si>
     <t>五毒教</t>
   </si>
   <si>
     <t>33_emeipai</t>
   </si>
   <si>
+    <t>33_峨眉派</t>
+  </si>
+  <si>
     <t>峨眉派</t>
   </si>
   <si>
     <t>61_gaoshengkezhan</t>
   </si>
   <si>
+    <t>61_高升客栈</t>
+  </si>
+  <si>
     <t>高升客栈</t>
   </si>
   <si>
     <t>42_wuliangshandong</t>
   </si>
   <si>
+    <t>42_无量山洞</t>
+  </si>
+  <si>
     <t>无量山洞</t>
   </si>
   <si>
     <t>69_baituoshan</t>
   </si>
   <si>
+    <t>69_白驼山</t>
+  </si>
+  <si>
     <t>白驼山</t>
   </si>
   <si>
     <t>35_xingxiuhai</t>
   </si>
   <si>
-    <t>星宿海</t>
+    <t>35_星宿海</t>
   </si>
   <si>
     <t>16_jinlunsi</t>
   </si>
   <si>
-    <t>金轮寺</t>
+    <t>16_金轮寺</t>
   </si>
   <si>
     <t>60_longmenkezhan</t>
   </si>
   <si>
-    <t>龙门客栈</t>
+    <t>60_龙门客栈</t>
   </si>
   <si>
     <t>17_huizubuluo</t>
   </si>
   <si>
-    <t>回族帐篷</t>
+    <t>17_回族帐篷</t>
   </si>
   <si>
     <t>12_mingjiaofenduo</t>
   </si>
   <si>
-    <t>明教分舵</t>
+    <t>12_明教分舵</t>
   </si>
   <si>
     <t>11_guangmingding</t>
   </si>
   <si>
-    <t>光明顶</t>
+    <t>11_光明顶</t>
   </si>
   <si>
     <t>68_kunlunpai</t>
   </si>
   <si>
-    <t>昆仑派</t>
+    <t>68_昆仑派</t>
   </si>
   <si>
     <t>04_kunlunxianjing</t>
   </si>
   <si>
-    <t>昆仑仙境</t>
+    <t>04_昆仑仙境</t>
   </si>
   <si>
     <t>08_dalunsi</t>
   </si>
   <si>
-    <t>大伦寺</t>
+    <t>08_大伦寺</t>
   </si>
   <si>
     <t>15_shamofeixu</t>
   </si>
   <si>
-    <t>沙漠废墟</t>
+    <t>15_沙漠废墟</t>
   </si>
   <si>
     <t>09_chengkunju</t>
   </si>
   <si>
-    <t>成昆居</t>
+    <t>09_成昆居</t>
   </si>
   <si>
     <t>62_pomiao</t>
   </si>
   <si>
-    <t>破庙</t>
+    <t>62_破庙</t>
   </si>
   <si>
     <t>03_youjiankezhan</t>
   </si>
   <si>
-    <t>有间客栈</t>
+    <t>03_有间客栈</t>
   </si>
   <si>
     <t>06_beichouju</t>
   </si>
   <si>
-    <t>北丑居</t>
+    <t>06_北丑居</t>
   </si>
   <si>
     <t>72_binghuodao</t>
   </si>
   <si>
+    <t>72_冰火岛</t>
+  </si>
+  <si>
     <t>冰火岛</t>
   </si>
   <si>
     <t>71_shenlongjiao</t>
   </si>
   <si>
+    <t>71_神龙教</t>
+  </si>
+  <si>
     <t>神龙教</t>
   </si>
   <si>
     <t>73_lingshedao</t>
   </si>
   <si>
+    <t>73_灵蛇岛</t>
+  </si>
+  <si>
     <t>灵蛇岛</t>
   </si>
   <si>
     <t>78_bonidao</t>
   </si>
   <si>
+    <t>78_渤泥岛</t>
+  </si>
+  <si>
     <t>渤泥岛</t>
   </si>
   <si>
     <t>75_taohuadao</t>
   </si>
   <si>
+    <t>75_桃花岛</t>
+  </si>
+  <si>
     <t>桃花岛</t>
   </si>
   <si>
     <t>77_wanedao</t>
   </si>
   <si>
-    <t>万鳄岛</t>
+    <t>77_万鳄岛</t>
   </si>
   <si>
     <t>76_pilitang</t>
   </si>
   <si>
-    <t>霹雳堂</t>
+    <t>76_霹雳堂</t>
   </si>
   <si>
     <t>74_xiakedao</t>
   </si>
   <si>
-    <t>侠客岛</t>
+    <t>74_侠客岛</t>
   </si>
   <si>
     <t>29_taishanpai</t>
   </si>
   <si>
-    <t>泰山派</t>
+    <t>29_泰山派</t>
   </si>
   <si>
     <t>30_pingyizhiju</t>
   </si>
   <si>
-    <t>平一指居</t>
+    <t>30_平一指居</t>
   </si>
   <si>
     <t>24_miaorenfengju</t>
   </si>
   <si>
-    <t>苗人凤居</t>
+    <t>24_苗人凤居</t>
   </si>
   <si>
     <t>32_haibianxiaowu</t>
   </si>
   <si>
-    <t>海边小屋</t>
+    <t>32_海边小屋</t>
   </si>
   <si>
     <t>44_hudiegu</t>
   </si>
   <si>
-    <t>蝴蝶谷</t>
+    <t>44_蝴蝶谷</t>
   </si>
   <si>
     <t>51_gaibang</t>
   </si>
   <si>
-    <t>丐帮</t>
+    <t>51_丐帮</t>
   </si>
   <si>
     <t>40_yuelaikezhan</t>
   </si>
   <si>
-    <t>悦来客栈</t>
+    <t>40_悦来客栈</t>
   </si>
   <si>
     <t>28_shaolinsi</t>
   </si>
   <si>
-    <t>少林寺</t>
+    <t>28_少林寺</t>
   </si>
   <si>
     <t>27_songshanpai</t>
   </si>
   <si>
-    <t>嵩山派</t>
+    <t>27_嵩山派</t>
   </si>
   <si>
     <t>43_wudangpai</t>
   </si>
   <si>
-    <t>武当派</t>
+    <t>43_武当派</t>
   </si>
   <si>
     <t>36_qingchengpai</t>
   </si>
   <si>
-    <t>青城派</t>
+    <t>36_青城派</t>
   </si>
   <si>
     <t>38_motianya</t>
   </si>
   <si>
-    <t>摩天崖</t>
+    <t>38_摩天崖</t>
   </si>
   <si>
     <t>34_kongtongpai</t>
   </si>
   <si>
-    <t>崆峒派</t>
+    <t>34_崆峒派</t>
   </si>
   <si>
     <t>20_baihuagu</t>
   </si>
   <si>
-    <t>百花谷</t>
+    <t>20_百花谷</t>
   </si>
   <si>
     <t>22_jueqinggu</t>
   </si>
   <si>
-    <t>绝情谷</t>
+    <t>22_绝情谷</t>
   </si>
   <si>
     <t>80_jueqinggudi</t>
   </si>
   <si>
-    <t>绝情谷底</t>
+    <t>80_绝情谷底</t>
   </si>
   <si>
     <t>46_jinsheshandong</t>
   </si>
   <si>
-    <t>金蛇山洞</t>
+    <t>46_金蛇山洞</t>
   </si>
   <si>
     <t>57_huashanpai</t>
   </si>
   <si>
-    <t>华山派</t>
+    <t>57_华山派</t>
   </si>
   <si>
     <t>81_siguoya</t>
   </si>
   <si>
-    <t>思过崖</t>
+    <t>81_思过崖</t>
   </si>
   <si>
     <t>25_wudaodahui</t>
   </si>
   <si>
+    <t>25_武道大会</t>
+  </si>
+  <si>
     <t>31_hengshanpai</t>
   </si>
   <si>
-    <t>恒山派</t>
+    <t>31_恒山派</t>
   </si>
   <si>
     <t>19_chongyanggong</t>
   </si>
   <si>
-    <t>重阳宫</t>
+    <t>19_重阳宫</t>
   </si>
   <si>
     <t>18_gumu</t>
   </si>
   <si>
-    <t>古墓派</t>
+    <t>18_古墓派</t>
   </si>
   <si>
     <t>26_heimuya</t>
   </si>
   <si>
-    <t>黑木崖</t>
+    <t>26_黑木崖</t>
   </si>
   <si>
     <t>23_hongqigongju</t>
   </si>
   <si>
-    <t>洪七公居</t>
+    <t>23_洪七公居</t>
   </si>
   <si>
     <t>53_leigushan</t>
   </si>
   <si>
-    <t>擂鼓山</t>
+    <t>53_擂鼓山</t>
   </si>
   <si>
     <t>54_xuemuhuaju</t>
   </si>
   <si>
-    <t>薛慕华居</t>
+    <t>54_薛慕华居</t>
   </si>
   <si>
     <t>39_lingxiaocheng</t>
   </si>
   <si>
-    <t>雪山派</t>
+    <t>39_雪山派</t>
   </si>
   <si>
     <t>02_yunheya</t>
   </si>
   <si>
-    <t>云鹤崖</t>
+    <t>02_云鹤崖</t>
   </si>
   <si>
     <t>05_shandong</t>
   </si>
   <si>
-    <t>闯王山洞</t>
+    <t>05_闯王山洞</t>
   </si>
   <si>
     <t>07_shandong</t>
   </si>
   <si>
-    <t>神雕山洞</t>
+    <t>07_神雕山洞</t>
   </si>
   <si>
     <t>10_Shandong</t>
   </si>
   <si>
-    <t>蜘蛛山洞</t>
+    <t>10_蜘蛛山洞</t>
   </si>
   <si>
     <t>13_mingjiaodidao</t>
   </si>
   <si>
-    <t>明教地道</t>
+    <t>13_明教地道</t>
   </si>
   <si>
     <t>14_gaochangmigong</t>
   </si>
   <si>
-    <t>高昌迷宫</t>
+    <t>14_高昌迷宫</t>
   </si>
   <si>
     <t>41_shandong</t>
   </si>
   <si>
-    <t>神秘山洞</t>
+    <t>41_神秘山洞</t>
   </si>
   <si>
     <t>65_shandong</t>
   </si>
   <si>
-    <t>唐诗山洞</t>
+    <t>65_唐诗山洞</t>
   </si>
   <si>
     <t>66_shandong</t>
   </si>
   <si>
-    <t>冰蚕山洞</t>
+    <t>66_冰蚕山洞</t>
   </si>
   <si>
     <t>67_shandong</t>
   </si>
   <si>
-    <t>昆仑山洞</t>
+    <t>67_昆仑山洞</t>
   </si>
   <si>
     <t>79_shandong</t>
   </si>
   <si>
-    <t>鸳鸯山洞</t>
+    <t>79_鸳鸯山洞</t>
   </si>
   <si>
     <t>82_meizhuangdilao</t>
   </si>
   <si>
-    <t>梅庄地牢</t>
+    <t>82_梅庄地牢</t>
   </si>
   <si>
     <t>83_shengtang</t>
   </si>
   <si>
-    <t>圣堂</t>
+    <t>83_圣堂</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -612,29 +693,162 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,8 +867,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -677,24 +1071,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,44 +1335,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1068,32 +1744,33 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.775" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2166666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="48" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1129,460 +1806,461 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="5">
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="2">
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C18" s="2">
         <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C20" s="2">
         <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="5">
         <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C23" s="2">
         <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="2">
         <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C26" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C31" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>70</v>
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>72</v>
+        <v>92</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C34" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C36" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
@@ -1590,124 +2268,124 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C39" s="2">
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C40" s="2">
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C41" s="2">
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C42" s="2">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C43" s="2">
         <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C44" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>98</v>
+        <v>123</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -1715,10 +2393,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
@@ -1726,10 +2404,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
@@ -1737,10 +2415,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
@@ -1748,10 +2426,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
@@ -1759,10 +2437,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>137</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -1770,10 +2448,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
@@ -1781,10 +2459,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>141</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
@@ -1792,10 +2470,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
@@ -1803,10 +2481,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
@@ -1814,10 +2492,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>147</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
@@ -1825,10 +2503,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
@@ -1836,10 +2514,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
@@ -1847,10 +2525,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
@@ -1858,10 +2536,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
@@ -1869,10 +2547,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
@@ -1880,10 +2558,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
@@ -1891,10 +2569,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>161</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
@@ -1902,7 +2580,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
@@ -1910,10 +2591,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
@@ -1921,10 +2602,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>167</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
@@ -1932,10 +2613,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>169</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
@@ -1943,10 +2624,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>171</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
@@ -1954,10 +2635,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
@@ -1965,10 +2646,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>175</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
@@ -1976,10 +2657,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>177</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -1987,10 +2668,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>179</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
@@ -1998,10 +2679,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>181</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -2009,10 +2690,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>157</v>
+        <v>183</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C76" s="6">
         <v>5</v>
@@ -2020,10 +2701,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>159</v>
+        <v>185</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C77" s="6">
         <v>7</v>
@@ -2031,10 +2712,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>161</v>
+        <v>187</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C78" s="6">
         <v>10</v>
@@ -2042,10 +2723,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>163</v>
+        <v>189</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C79" s="7">
         <v>13</v>
@@ -2053,10 +2734,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>165</v>
+        <v>191</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="C80" s="7">
         <v>14</v>
@@ -2064,10 +2745,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>167</v>
+        <v>193</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C81" s="6">
         <v>41</v>
@@ -2075,10 +2756,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>169</v>
+        <v>195</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="C82" s="6">
         <v>65</v>
@@ -2086,10 +2767,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>171</v>
+        <v>197</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="C83" s="6">
         <v>66</v>
@@ -2097,10 +2778,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>173</v>
+        <v>199</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C84" s="6">
         <v>67</v>
@@ -2108,10 +2789,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C85" s="6">
         <v>79</v>
@@ -2119,10 +2800,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
@@ -2130,19 +2811,19 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>179</v>
+        <v>205</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C87" s="7">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92B264-3A02-4EFA-997F-4BE8FF828432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>cg</author>
   </authors>
   <commentList>
-    <comment ref="A81" authorId="0">
+    <comment ref="A81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
   <si>
     <t>Key</t>
   </si>
@@ -81,9 +87,6 @@
     <t>70_xiaoxiamiju</t>
   </si>
   <si>
-    <t>70_小虾米居</t>
-  </si>
-  <si>
     <t>小虾米居</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
     <t>01_heluokezhan</t>
   </si>
   <si>
-    <t>10_河洛客栈</t>
-  </si>
-  <si>
     <t>河洛客栈</t>
   </si>
   <si>
@@ -108,578 +108,612 @@
     <t>00_hufeiju</t>
   </si>
   <si>
-    <t>00_胡斐居</t>
-  </si>
-  <si>
     <t>胡斐居</t>
   </si>
   <si>
     <t>59_tianboguangju</t>
   </si>
   <si>
-    <t>59_田伯光居</t>
-  </si>
-  <si>
     <t>田伯光居</t>
   </si>
   <si>
     <t>49_yaowangzhuang</t>
   </si>
   <si>
-    <t>49_药王庄</t>
-  </si>
-  <si>
     <t>药王庄</t>
   </si>
   <si>
     <t>64_nanxianju</t>
   </si>
   <si>
-    <t>64_南贤居</t>
-  </si>
-  <si>
     <t>南贤居</t>
   </si>
   <si>
     <t>50_yanjiju</t>
   </si>
   <si>
-    <t>50_阎基居</t>
-  </si>
-  <si>
     <t>阎基居</t>
   </si>
   <si>
     <t>52_yanziwu</t>
   </si>
   <si>
-    <t>52_燕子坞</t>
-  </si>
-  <si>
     <t>燕子坞</t>
   </si>
   <si>
     <t>63_tianningsi</t>
   </si>
   <si>
-    <t>63_天宁寺</t>
-  </si>
-  <si>
     <t>天宁寺</t>
   </si>
   <si>
     <t>55_meizhuang</t>
   </si>
   <si>
-    <t>55_梅庄</t>
-  </si>
-  <si>
     <t>梅庄</t>
   </si>
   <si>
     <t>56_fuweibiaoju</t>
   </si>
   <si>
-    <t>56_福威镖局</t>
-  </si>
-  <si>
     <t>福威镖局</t>
   </si>
   <si>
     <t>58_hengshanpai</t>
   </si>
   <si>
-    <t>58_衡山派</t>
-  </si>
-  <si>
     <t>衡山派</t>
   </si>
   <si>
     <t>47_yidengju</t>
   </si>
   <si>
-    <t>47_一灯居</t>
-  </si>
-  <si>
     <t>一灯居</t>
   </si>
   <si>
     <t>21_heilongtan</t>
   </si>
   <si>
-    <t>21_黑龙潭</t>
-  </si>
-  <si>
     <t>黑龙潭</t>
   </si>
   <si>
     <t>48_tiezhangshan</t>
   </si>
   <si>
-    <t>48_铁掌山</t>
-  </si>
-  <si>
     <t>铁掌山</t>
   </si>
   <si>
     <t>45_chengyingju</t>
   </si>
   <si>
-    <t>45_程英居</t>
-  </si>
-  <si>
     <t>程英居</t>
   </si>
   <si>
     <t>37_wudujiao</t>
   </si>
   <si>
-    <t>37_五毒教</t>
-  </si>
-  <si>
     <t>五毒教</t>
   </si>
   <si>
     <t>33_emeipai</t>
   </si>
   <si>
-    <t>33_峨眉派</t>
-  </si>
-  <si>
     <t>峨眉派</t>
   </si>
   <si>
     <t>61_gaoshengkezhan</t>
   </si>
   <si>
-    <t>61_高升客栈</t>
-  </si>
-  <si>
     <t>高升客栈</t>
   </si>
   <si>
     <t>42_wuliangshandong</t>
   </si>
   <si>
-    <t>42_无量山洞</t>
-  </si>
-  <si>
     <t>无量山洞</t>
   </si>
   <si>
     <t>69_baituoshan</t>
   </si>
   <si>
-    <t>69_白驼山</t>
-  </si>
-  <si>
     <t>白驼山</t>
   </si>
   <si>
     <t>35_xingxiuhai</t>
   </si>
   <si>
-    <t>35_星宿海</t>
-  </si>
-  <si>
     <t>16_jinlunsi</t>
   </si>
   <si>
-    <t>16_金轮寺</t>
-  </si>
-  <si>
     <t>60_longmenkezhan</t>
   </si>
   <si>
-    <t>60_龙门客栈</t>
-  </si>
-  <si>
     <t>17_huizubuluo</t>
   </si>
   <si>
-    <t>17_回族帐篷</t>
-  </si>
-  <si>
     <t>12_mingjiaofenduo</t>
   </si>
   <si>
-    <t>12_明教分舵</t>
-  </si>
-  <si>
     <t>11_guangmingding</t>
   </si>
   <si>
-    <t>11_光明顶</t>
-  </si>
-  <si>
     <t>68_kunlunpai</t>
   </si>
   <si>
-    <t>68_昆仑派</t>
-  </si>
-  <si>
     <t>04_kunlunxianjing</t>
   </si>
   <si>
-    <t>04_昆仑仙境</t>
-  </si>
-  <si>
     <t>08_dalunsi</t>
   </si>
   <si>
-    <t>08_大伦寺</t>
-  </si>
-  <si>
     <t>15_shamofeixu</t>
   </si>
   <si>
-    <t>15_沙漠废墟</t>
-  </si>
-  <si>
     <t>09_chengkunju</t>
   </si>
   <si>
-    <t>09_成昆居</t>
-  </si>
-  <si>
     <t>62_pomiao</t>
   </si>
   <si>
-    <t>62_破庙</t>
-  </si>
-  <si>
     <t>03_youjiankezhan</t>
   </si>
   <si>
-    <t>03_有间客栈</t>
-  </si>
-  <si>
     <t>06_beichouju</t>
   </si>
   <si>
-    <t>06_北丑居</t>
-  </si>
-  <si>
     <t>72_binghuodao</t>
   </si>
   <si>
-    <t>72_冰火岛</t>
-  </si>
-  <si>
     <t>冰火岛</t>
   </si>
   <si>
     <t>71_shenlongjiao</t>
   </si>
   <si>
-    <t>71_神龙教</t>
-  </si>
-  <si>
     <t>神龙教</t>
   </si>
   <si>
     <t>73_lingshedao</t>
   </si>
   <si>
-    <t>73_灵蛇岛</t>
-  </si>
-  <si>
     <t>灵蛇岛</t>
   </si>
   <si>
     <t>78_bonidao</t>
   </si>
   <si>
-    <t>78_渤泥岛</t>
-  </si>
-  <si>
     <t>渤泥岛</t>
   </si>
   <si>
     <t>75_taohuadao</t>
   </si>
   <si>
-    <t>75_桃花岛</t>
-  </si>
-  <si>
     <t>桃花岛</t>
   </si>
   <si>
     <t>77_wanedao</t>
   </si>
   <si>
-    <t>77_万鳄岛</t>
-  </si>
-  <si>
     <t>76_pilitang</t>
   </si>
   <si>
-    <t>76_霹雳堂</t>
-  </si>
-  <si>
     <t>74_xiakedao</t>
   </si>
   <si>
-    <t>74_侠客岛</t>
-  </si>
-  <si>
     <t>29_taishanpai</t>
   </si>
   <si>
-    <t>29_泰山派</t>
-  </si>
-  <si>
     <t>30_pingyizhiju</t>
   </si>
   <si>
-    <t>30_平一指居</t>
-  </si>
-  <si>
     <t>24_miaorenfengju</t>
   </si>
   <si>
-    <t>24_苗人凤居</t>
-  </si>
-  <si>
     <t>32_haibianxiaowu</t>
   </si>
   <si>
-    <t>32_海边小屋</t>
-  </si>
-  <si>
     <t>44_hudiegu</t>
   </si>
   <si>
-    <t>44_蝴蝶谷</t>
-  </si>
-  <si>
     <t>51_gaibang</t>
   </si>
   <si>
-    <t>51_丐帮</t>
-  </si>
-  <si>
     <t>40_yuelaikezhan</t>
   </si>
   <si>
-    <t>40_悦来客栈</t>
-  </si>
-  <si>
     <t>28_shaolinsi</t>
   </si>
   <si>
-    <t>28_少林寺</t>
-  </si>
-  <si>
     <t>27_songshanpai</t>
   </si>
   <si>
-    <t>27_嵩山派</t>
-  </si>
-  <si>
     <t>43_wudangpai</t>
   </si>
   <si>
-    <t>43_武当派</t>
-  </si>
-  <si>
     <t>36_qingchengpai</t>
   </si>
   <si>
-    <t>36_青城派</t>
-  </si>
-  <si>
     <t>38_motianya</t>
   </si>
   <si>
-    <t>38_摩天崖</t>
-  </si>
-  <si>
     <t>34_kongtongpai</t>
   </si>
   <si>
-    <t>34_崆峒派</t>
-  </si>
-  <si>
     <t>20_baihuagu</t>
   </si>
   <si>
-    <t>20_百花谷</t>
-  </si>
-  <si>
     <t>22_jueqinggu</t>
   </si>
   <si>
-    <t>22_绝情谷</t>
-  </si>
-  <si>
     <t>80_jueqinggudi</t>
   </si>
   <si>
-    <t>80_绝情谷底</t>
-  </si>
-  <si>
     <t>46_jinsheshandong</t>
   </si>
   <si>
-    <t>46_金蛇山洞</t>
-  </si>
-  <si>
     <t>57_huashanpai</t>
   </si>
   <si>
-    <t>57_华山派</t>
-  </si>
-  <si>
     <t>81_siguoya</t>
   </si>
   <si>
-    <t>81_思过崖</t>
-  </si>
-  <si>
     <t>25_wudaodahui</t>
   </si>
   <si>
-    <t>25_武道大会</t>
-  </si>
-  <si>
     <t>31_hengshanpai</t>
   </si>
   <si>
-    <t>31_恒山派</t>
-  </si>
-  <si>
     <t>19_chongyanggong</t>
   </si>
   <si>
-    <t>19_重阳宫</t>
-  </si>
-  <si>
     <t>18_gumu</t>
   </si>
   <si>
-    <t>18_古墓派</t>
-  </si>
-  <si>
     <t>26_heimuya</t>
   </si>
   <si>
-    <t>26_黑木崖</t>
-  </si>
-  <si>
     <t>23_hongqigongju</t>
   </si>
   <si>
-    <t>23_洪七公居</t>
-  </si>
-  <si>
     <t>53_leigushan</t>
   </si>
   <si>
-    <t>53_擂鼓山</t>
-  </si>
-  <si>
     <t>54_xuemuhuaju</t>
   </si>
   <si>
-    <t>54_薛慕华居</t>
-  </si>
-  <si>
     <t>39_lingxiaocheng</t>
   </si>
   <si>
-    <t>39_雪山派</t>
-  </si>
-  <si>
     <t>02_yunheya</t>
   </si>
   <si>
-    <t>02_云鹤崖</t>
-  </si>
-  <si>
     <t>05_shandong</t>
   </si>
   <si>
-    <t>05_闯王山洞</t>
-  </si>
-  <si>
     <t>07_shandong</t>
   </si>
   <si>
-    <t>07_神雕山洞</t>
-  </si>
-  <si>
     <t>10_Shandong</t>
   </si>
   <si>
-    <t>10_蜘蛛山洞</t>
-  </si>
-  <si>
     <t>13_mingjiaodidao</t>
   </si>
   <si>
-    <t>13_明教地道</t>
-  </si>
-  <si>
     <t>14_gaochangmigong</t>
   </si>
   <si>
-    <t>14_高昌迷宫</t>
-  </si>
-  <si>
     <t>41_shandong</t>
   </si>
   <si>
-    <t>41_神秘山洞</t>
-  </si>
-  <si>
     <t>65_shandong</t>
   </si>
   <si>
-    <t>65_唐诗山洞</t>
-  </si>
-  <si>
     <t>66_shandong</t>
   </si>
   <si>
-    <t>66_冰蚕山洞</t>
-  </si>
-  <si>
     <t>67_shandong</t>
   </si>
   <si>
-    <t>67_昆仑山洞</t>
-  </si>
-  <si>
     <t>79_shandong</t>
   </si>
   <si>
-    <t>79_鸳鸯山洞</t>
-  </si>
-  <si>
     <t>82_meizhuangdilao</t>
   </si>
   <si>
-    <t>82_梅庄地牢</t>
-  </si>
-  <si>
     <t>83_shengtang</t>
   </si>
   <si>
-    <t>83_圣堂</t>
+    <r>
+      <t>Leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小虾米居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河洛客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡斐居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田伯光居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药王庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南贤居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎基居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子坞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天宁寺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福威镖局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡山派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一灯居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙潭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁掌山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程英居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高升客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无量山洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白驼山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星宿海</t>
+  </si>
+  <si>
+    <t>金轮寺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙门客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回族帐篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明教分舵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑仙境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大伦寺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠废墟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成昆居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破庙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有间客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北丑居</t>
+  </si>
+  <si>
+    <t>万鳄岛</t>
+  </si>
+  <si>
+    <t>霹雳堂</t>
+  </si>
+  <si>
+    <t>侠客岛</t>
+  </si>
+  <si>
+    <t>泰山派</t>
+  </si>
+  <si>
+    <t>平一指居</t>
+  </si>
+  <si>
+    <t>苗人凤居</t>
+  </si>
+  <si>
+    <t>海边小屋</t>
+  </si>
+  <si>
+    <t>蝴蝶谷</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>悦来客栈</t>
+  </si>
+  <si>
+    <t>少林寺</t>
+  </si>
+  <si>
+    <t>嵩山派</t>
+  </si>
+  <si>
+    <t>武当派</t>
+  </si>
+  <si>
+    <t>青城派</t>
+  </si>
+  <si>
+    <t>摩天崖</t>
+  </si>
+  <si>
+    <t>崆峒派</t>
+  </si>
+  <si>
+    <t>百花谷</t>
+  </si>
+  <si>
+    <t>绝情谷</t>
+  </si>
+  <si>
+    <t>绝情谷底</t>
+  </si>
+  <si>
+    <t>金蛇山洞</t>
+  </si>
+  <si>
+    <t>华山派</t>
+  </si>
+  <si>
+    <t>思过崖</t>
+  </si>
+  <si>
+    <t>武道大会</t>
+  </si>
+  <si>
+    <t>恒山派</t>
+  </si>
+  <si>
+    <t>重阳宫</t>
+  </si>
+  <si>
+    <t>古墓派</t>
+  </si>
+  <si>
+    <t>黑木崖</t>
+  </si>
+  <si>
+    <t>洪七公居</t>
+  </si>
+  <si>
+    <t>擂鼓山</t>
+  </si>
+  <si>
+    <t>薛慕华居</t>
+  </si>
+  <si>
+    <t>雪山派</t>
+  </si>
+  <si>
+    <t>云鹤崖</t>
+  </si>
+  <si>
+    <t>闯王山洞</t>
+  </si>
+  <si>
+    <t>神雕山洞</t>
+  </si>
+  <si>
+    <t>蜘蛛山洞</t>
+  </si>
+  <si>
+    <t>明教地道</t>
+  </si>
+  <si>
+    <t>高昌迷宫</t>
+  </si>
+  <si>
+    <t>神秘山洞</t>
+  </si>
+  <si>
+    <t>唐诗山洞</t>
+  </si>
+  <si>
+    <t>冰蚕山洞</t>
+  </si>
+  <si>
+    <t>昆仑山洞</t>
+  </si>
+  <si>
+    <t>鸳鸯山洞</t>
+  </si>
+  <si>
+    <t>梅庄地牢</t>
+  </si>
+  <si>
+    <t>圣堂</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -693,150 +727,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -847,8 +737,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,188 +770,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1071,351 +794,72 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1744,33 +1188,32 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.775" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2166666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="48" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1806,968 +1249,971 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
+      <c r="B4" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="C7" s="2">
         <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C8" s="2">
         <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C9" s="5">
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C10" s="2">
         <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C11" s="2">
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="2">
         <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="2">
         <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="2">
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="C15" s="2">
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="2">
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C18" s="2">
         <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C20" s="2">
         <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C21" s="5">
         <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C23" s="2">
         <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C24" s="2">
         <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C25" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C26" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C31" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="C34" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C36" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2">
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2">
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2">
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2">
         <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C44" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C76" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C77" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C78" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C79" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C80" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C81" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C82" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>198</v>
@@ -2776,54 +2222,54 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="C84" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C85" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C87" s="7">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92B264-3A02-4EFA-997F-4BE8FF828432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799ED6EF-9E4B-4BC7-9719-5C04C0FA4494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,10 +550,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>昆仑仙境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大伦寺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -707,6 +703,10 @@
   </si>
   <si>
     <t>圣堂</t>
+  </si>
+  <si>
+    <t>昆仑山洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1637,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
@@ -1651,7 +1651,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
@@ -1662,7 +1662,7 @@
         <v>64</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="5">
         <v>15</v>
@@ -1673,7 +1673,7 @@
         <v>65</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
@@ -1684,7 +1684,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="2">
         <v>62</v>
@@ -1695,7 +1695,7 @@
         <v>67</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -1706,7 +1706,7 @@
         <v>68</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
@@ -1787,7 +1787,7 @@
         <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="2">
         <v>77</v>
@@ -1798,7 +1798,7 @@
         <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
@@ -1809,7 +1809,7 @@
         <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
@@ -1820,7 +1820,7 @@
         <v>82</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
@@ -1831,7 +1831,7 @@
         <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -1842,7 +1842,7 @@
         <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
@@ -1853,7 +1853,7 @@
         <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
@@ -1864,7 +1864,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
@@ -1875,7 +1875,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
@@ -1886,7 +1886,7 @@
         <v>88</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -1897,7 +1897,7 @@
         <v>89</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
@@ -1908,7 +1908,7 @@
         <v>90</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
@@ -1919,7 +1919,7 @@
         <v>91</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
@@ -1930,7 +1930,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
@@ -1941,7 +1941,7 @@
         <v>93</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
@@ -1952,7 +1952,7 @@
         <v>94</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
@@ -1963,7 +1963,7 @@
         <v>95</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
@@ -1974,7 +1974,7 @@
         <v>96</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
@@ -1985,7 +1985,7 @@
         <v>97</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
@@ -1996,7 +1996,7 @@
         <v>98</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
@@ -2007,7 +2007,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
@@ -2018,7 +2018,7 @@
         <v>100</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
@@ -2029,7 +2029,7 @@
         <v>101</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
@@ -2040,7 +2040,7 @@
         <v>102</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
@@ -2051,7 +2051,7 @@
         <v>103</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
@@ -2062,7 +2062,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
@@ -2073,7 +2073,7 @@
         <v>105</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>106</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
@@ -2095,7 +2095,7 @@
         <v>107</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
@@ -2106,7 +2106,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2117,7 +2117,7 @@
         <v>109</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
@@ -2128,7 +2128,7 @@
         <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -2139,7 +2139,7 @@
         <v>111</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="6">
         <v>5</v>
@@ -2150,7 +2150,7 @@
         <v>112</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" s="6">
         <v>7</v>
@@ -2161,7 +2161,7 @@
         <v>113</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" s="6">
         <v>10</v>
@@ -2172,7 +2172,7 @@
         <v>114</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" s="7">
         <v>13</v>
@@ -2183,7 +2183,7 @@
         <v>115</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" s="7">
         <v>14</v>
@@ -2194,7 +2194,7 @@
         <v>116</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" s="6">
         <v>41</v>
@@ -2205,7 +2205,7 @@
         <v>117</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" s="6">
         <v>65</v>
@@ -2216,7 +2216,7 @@
         <v>118</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="6">
         <v>66</v>
@@ -2227,7 +2227,7 @@
         <v>119</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="6">
         <v>67</v>
@@ -2238,7 +2238,7 @@
         <v>120</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" s="6">
         <v>79</v>
@@ -2249,7 +2249,7 @@
         <v>121</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
@@ -2260,7 +2260,7 @@
         <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" s="7">
         <v>83</v>

--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799ED6EF-9E4B-4BC7-9719-5C04C0FA4494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02EA75-53FE-4B6C-9159-CDFFB3839BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
   <si>
     <t>Key</t>
   </si>
@@ -699,13 +699,14 @@
     <t>鸳鸯山洞</t>
   </si>
   <si>
-    <t>梅庄地牢</t>
-  </si>
-  <si>
     <t>圣堂</t>
   </si>
   <si>
     <t>昆仑山洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅庄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1197,8 +1198,8 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1638,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
@@ -2189,7 +2190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>116</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>117</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>118</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>119</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>120</v>
       </c>
@@ -2244,23 +2245,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E86" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" s="7">
         <v>83</v>

--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02EA75-53FE-4B6C-9159-CDFFB3839BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC036D3-B23A-45D7-8F91-AFCE5CC66C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
   <si>
     <t>Key</t>
   </si>
@@ -678,9 +678,6 @@
     <t>蜘蛛山洞</t>
   </si>
   <si>
-    <t>明教地道</t>
-  </si>
-  <si>
     <t>高昌迷宫</t>
   </si>
   <si>
@@ -707,6 +704,10 @@
   </si>
   <si>
     <t>梅庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明教分舵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1198,8 +1199,8 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1639,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
@@ -2014,7 +2015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>100</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>101</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>102</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>103</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>105</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>106</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>107</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>108</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>109</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>110</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>111</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>112</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>113</v>
       </c>
@@ -2168,23 +2169,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C79" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E79" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" s="7">
         <v>14</v>
@@ -2195,7 +2199,7 @@
         <v>116</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C81" s="6">
         <v>41</v>
@@ -2206,7 +2210,7 @@
         <v>117</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" s="6">
         <v>65</v>
@@ -2217,7 +2221,7 @@
         <v>118</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" s="6">
         <v>66</v>
@@ -2228,7 +2232,7 @@
         <v>119</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" s="6">
         <v>67</v>
@@ -2239,7 +2243,7 @@
         <v>120</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" s="6">
         <v>79</v>
@@ -2250,7 +2254,7 @@
         <v>121</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
@@ -2264,7 +2268,7 @@
         <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C87" s="7">
         <v>83</v>

--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC036D3-B23A-45D7-8F91-AFCE5CC66C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A57B2D8-71CA-4CE1-92B4-6EF99C3F2801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="203">
   <si>
     <t>Key</t>
   </si>
@@ -678,9 +678,6 @@
     <t>蜘蛛山洞</t>
   </si>
   <si>
-    <t>高昌迷宫</t>
-  </si>
-  <si>
     <t>神秘山洞</t>
   </si>
   <si>
@@ -708,6 +705,10 @@
   </si>
   <si>
     <t>明教分舵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠废墟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1199,8 +1200,8 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1640,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
@@ -2174,7 +2175,7 @@
         <v>114</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" s="7">
         <v>13</v>
@@ -2188,10 +2189,13 @@
         <v>115</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C80" s="7">
         <v>14</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2199,7 +2203,7 @@
         <v>116</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="6">
         <v>41</v>
@@ -2210,7 +2214,7 @@
         <v>117</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" s="6">
         <v>65</v>
@@ -2221,7 +2225,7 @@
         <v>118</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C83" s="6">
         <v>66</v>
@@ -2232,7 +2236,7 @@
         <v>119</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" s="6">
         <v>67</v>
@@ -2243,7 +2247,7 @@
         <v>120</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" s="6">
         <v>79</v>
@@ -2254,7 +2258,7 @@
         <v>121</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
@@ -2268,7 +2272,7 @@
         <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" s="7">
         <v>83</v>

--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A57B2D8-71CA-4CE1-92B4-6EF99C3F2801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB068E01-7261-4F90-8E53-2986B00F518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
   <si>
     <t>Key</t>
   </si>
@@ -576,139 +576,137 @@
     <t>万鳄岛</t>
   </si>
   <si>
+    <t>侠客岛</t>
+  </si>
+  <si>
+    <t>泰山派</t>
+  </si>
+  <si>
+    <t>平一指居</t>
+  </si>
+  <si>
+    <t>苗人凤居</t>
+  </si>
+  <si>
+    <t>海边小屋</t>
+  </si>
+  <si>
+    <t>蝴蝶谷</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>悦来客栈</t>
+  </si>
+  <si>
+    <t>少林寺</t>
+  </si>
+  <si>
+    <t>嵩山派</t>
+  </si>
+  <si>
+    <t>武当派</t>
+  </si>
+  <si>
+    <t>青城派</t>
+  </si>
+  <si>
+    <t>摩天崖</t>
+  </si>
+  <si>
+    <t>崆峒派</t>
+  </si>
+  <si>
+    <t>百花谷</t>
+  </si>
+  <si>
+    <t>绝情谷</t>
+  </si>
+  <si>
+    <t>绝情谷底</t>
+  </si>
+  <si>
+    <t>金蛇山洞</t>
+  </si>
+  <si>
+    <t>华山派</t>
+  </si>
+  <si>
+    <t>思过崖</t>
+  </si>
+  <si>
+    <t>武道大会</t>
+  </si>
+  <si>
+    <t>恒山派</t>
+  </si>
+  <si>
+    <t>重阳宫</t>
+  </si>
+  <si>
+    <t>古墓派</t>
+  </si>
+  <si>
+    <t>黑木崖</t>
+  </si>
+  <si>
+    <t>洪七公居</t>
+  </si>
+  <si>
+    <t>擂鼓山</t>
+  </si>
+  <si>
+    <t>薛慕华居</t>
+  </si>
+  <si>
+    <t>雪山派</t>
+  </si>
+  <si>
+    <t>云鹤崖</t>
+  </si>
+  <si>
+    <t>闯王山洞</t>
+  </si>
+  <si>
+    <t>神雕山洞</t>
+  </si>
+  <si>
+    <t>蜘蛛山洞</t>
+  </si>
+  <si>
+    <t>神秘山洞</t>
+  </si>
+  <si>
+    <t>唐诗山洞</t>
+  </si>
+  <si>
+    <t>冰蚕山洞</t>
+  </si>
+  <si>
+    <t>昆仑山洞</t>
+  </si>
+  <si>
+    <t>鸳鸯山洞</t>
+  </si>
+  <si>
+    <t>昆仑山洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明教分舵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠废墟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>霹雳堂</t>
-  </si>
-  <si>
-    <t>侠客岛</t>
-  </si>
-  <si>
-    <t>泰山派</t>
-  </si>
-  <si>
-    <t>平一指居</t>
-  </si>
-  <si>
-    <t>苗人凤居</t>
-  </si>
-  <si>
-    <t>海边小屋</t>
-  </si>
-  <si>
-    <t>蝴蝶谷</t>
-  </si>
-  <si>
-    <t>丐帮</t>
-  </si>
-  <si>
-    <t>悦来客栈</t>
-  </si>
-  <si>
-    <t>少林寺</t>
-  </si>
-  <si>
-    <t>嵩山派</t>
-  </si>
-  <si>
-    <t>武当派</t>
-  </si>
-  <si>
-    <t>青城派</t>
-  </si>
-  <si>
-    <t>摩天崖</t>
-  </si>
-  <si>
-    <t>崆峒派</t>
-  </si>
-  <si>
-    <t>百花谷</t>
-  </si>
-  <si>
-    <t>绝情谷</t>
-  </si>
-  <si>
-    <t>绝情谷底</t>
-  </si>
-  <si>
-    <t>金蛇山洞</t>
-  </si>
-  <si>
-    <t>华山派</t>
-  </si>
-  <si>
-    <t>思过崖</t>
-  </si>
-  <si>
-    <t>武道大会</t>
-  </si>
-  <si>
-    <t>恒山派</t>
-  </si>
-  <si>
-    <t>重阳宫</t>
-  </si>
-  <si>
-    <t>古墓派</t>
-  </si>
-  <si>
-    <t>黑木崖</t>
-  </si>
-  <si>
-    <t>洪七公居</t>
-  </si>
-  <si>
-    <t>擂鼓山</t>
-  </si>
-  <si>
-    <t>薛慕华居</t>
-  </si>
-  <si>
-    <t>雪山派</t>
-  </si>
-  <si>
-    <t>云鹤崖</t>
-  </si>
-  <si>
-    <t>闯王山洞</t>
-  </si>
-  <si>
-    <t>神雕山洞</t>
-  </si>
-  <si>
-    <t>蜘蛛山洞</t>
-  </si>
-  <si>
-    <t>神秘山洞</t>
-  </si>
-  <si>
-    <t>唐诗山洞</t>
-  </si>
-  <si>
-    <t>冰蚕山洞</t>
-  </si>
-  <si>
-    <t>昆仑山洞</t>
-  </si>
-  <si>
-    <t>鸳鸯山洞</t>
-  </si>
-  <si>
-    <t>圣堂</t>
-  </si>
-  <si>
-    <t>昆仑山洞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅庄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教分舵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠废墟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1200,8 +1198,8 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1638,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
@@ -1801,7 +1799,7 @@
         <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
@@ -1812,7 +1810,7 @@
         <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
@@ -1823,7 +1821,7 @@
         <v>82</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
@@ -1834,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -1845,7 +1843,7 @@
         <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
@@ -1856,7 +1854,7 @@
         <v>85</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
@@ -1867,7 +1865,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
@@ -1878,7 +1876,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
@@ -1889,7 +1887,7 @@
         <v>88</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -1900,7 +1898,7 @@
         <v>89</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
@@ -1911,7 +1909,7 @@
         <v>90</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
@@ -1922,7 +1920,7 @@
         <v>91</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
@@ -1933,7 +1931,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
@@ -1944,7 +1942,7 @@
         <v>93</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
@@ -1955,7 +1953,7 @@
         <v>94</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
@@ -1966,7 +1964,7 @@
         <v>95</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
@@ -1977,7 +1975,7 @@
         <v>96</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
@@ -1988,7 +1986,7 @@
         <v>97</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
@@ -1999,7 +1997,7 @@
         <v>98</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
@@ -2010,7 +2008,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
@@ -2021,7 +2019,7 @@
         <v>100</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
@@ -2032,7 +2030,7 @@
         <v>101</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
@@ -2043,7 +2041,7 @@
         <v>102</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
@@ -2054,7 +2052,7 @@
         <v>103</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
@@ -2065,7 +2063,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
@@ -2076,7 +2074,7 @@
         <v>105</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
@@ -2087,7 +2085,7 @@
         <v>106</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
@@ -2098,7 +2096,7 @@
         <v>107</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
@@ -2109,7 +2107,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2120,7 +2118,7 @@
         <v>109</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
@@ -2131,7 +2129,7 @@
         <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -2142,7 +2140,7 @@
         <v>111</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" s="6">
         <v>5</v>
@@ -2153,7 +2151,7 @@
         <v>112</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" s="6">
         <v>7</v>
@@ -2164,7 +2162,7 @@
         <v>113</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C78" s="6">
         <v>10</v>
@@ -2175,7 +2173,7 @@
         <v>114</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C79" s="7">
         <v>13</v>
@@ -2189,7 +2187,7 @@
         <v>115</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C80" s="7">
         <v>14</v>
@@ -2203,7 +2201,7 @@
         <v>116</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C81" s="6">
         <v>41</v>
@@ -2214,7 +2212,7 @@
         <v>117</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="6">
         <v>65</v>
@@ -2225,7 +2223,7 @@
         <v>118</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" s="6">
         <v>66</v>
@@ -2236,7 +2234,7 @@
         <v>119</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="6">
         <v>67</v>
@@ -2247,7 +2245,7 @@
         <v>120</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C85" s="6">
         <v>79</v>
@@ -2258,7 +2256,7 @@
         <v>121</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C86" s="7">
         <v>82</v>
@@ -2272,10 +2270,13 @@
         <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C87" s="7">
         <v>83</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB068E01-7261-4F90-8E53-2986B00F518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>cg</author>
   </authors>
   <commentList>
-    <comment ref="A81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
   <si>
     <t>Key</t>
   </si>
@@ -222,208 +216,58 @@
     <t>35_xingxiuhai</t>
   </si>
   <si>
+    <t>星宿海</t>
+  </si>
+  <si>
     <t>16_jinlunsi</t>
   </si>
   <si>
+    <t>金轮寺</t>
+  </si>
+  <si>
     <t>60_longmenkezhan</t>
   </si>
   <si>
+    <t>龙门客栈</t>
+  </si>
+  <si>
     <t>17_huizubuluo</t>
   </si>
   <si>
+    <t>回族帐篷</t>
+  </si>
+  <si>
     <t>12_mingjiaofenduo</t>
   </si>
   <si>
+    <t>明教分舵</t>
+  </si>
+  <si>
     <t>11_guangmingding</t>
   </si>
   <si>
+    <t>光明顶</t>
+  </si>
+  <si>
     <t>68_kunlunpai</t>
   </si>
   <si>
+    <t>昆仑派</t>
+  </si>
+  <si>
     <t>04_kunlunxianjing</t>
   </si>
   <si>
-    <t>08_dalunsi</t>
-  </si>
-  <si>
-    <t>15_shamofeixu</t>
-  </si>
-  <si>
-    <t>09_chengkunju</t>
-  </si>
-  <si>
-    <t>62_pomiao</t>
-  </si>
-  <si>
-    <t>03_youjiankezhan</t>
-  </si>
-  <si>
-    <t>06_beichouju</t>
-  </si>
-  <si>
-    <t>72_binghuodao</t>
-  </si>
-  <si>
-    <t>冰火岛</t>
-  </si>
-  <si>
-    <t>71_shenlongjiao</t>
-  </si>
-  <si>
-    <t>神龙教</t>
-  </si>
-  <si>
-    <t>73_lingshedao</t>
-  </si>
-  <si>
-    <t>灵蛇岛</t>
-  </si>
-  <si>
-    <t>78_bonidao</t>
-  </si>
-  <si>
-    <t>渤泥岛</t>
-  </si>
-  <si>
-    <t>75_taohuadao</t>
-  </si>
-  <si>
-    <t>桃花岛</t>
-  </si>
-  <si>
-    <t>77_wanedao</t>
-  </si>
-  <si>
-    <t>76_pilitang</t>
-  </si>
-  <si>
-    <t>74_xiakedao</t>
-  </si>
-  <si>
-    <t>29_taishanpai</t>
-  </si>
-  <si>
-    <t>30_pingyizhiju</t>
-  </si>
-  <si>
-    <t>24_miaorenfengju</t>
-  </si>
-  <si>
-    <t>32_haibianxiaowu</t>
-  </si>
-  <si>
-    <t>44_hudiegu</t>
-  </si>
-  <si>
-    <t>51_gaibang</t>
-  </si>
-  <si>
-    <t>40_yuelaikezhan</t>
-  </si>
-  <si>
-    <t>28_shaolinsi</t>
-  </si>
-  <si>
-    <t>27_songshanpai</t>
-  </si>
-  <si>
-    <t>43_wudangpai</t>
-  </si>
-  <si>
-    <t>36_qingchengpai</t>
-  </si>
-  <si>
-    <t>38_motianya</t>
-  </si>
-  <si>
-    <t>34_kongtongpai</t>
-  </si>
-  <si>
-    <t>20_baihuagu</t>
-  </si>
-  <si>
-    <t>22_jueqinggu</t>
-  </si>
-  <si>
-    <t>80_jueqinggudi</t>
-  </si>
-  <si>
-    <t>46_jinsheshandong</t>
-  </si>
-  <si>
-    <t>57_huashanpai</t>
-  </si>
-  <si>
-    <t>81_siguoya</t>
-  </si>
-  <si>
-    <t>25_wudaodahui</t>
-  </si>
-  <si>
-    <t>31_hengshanpai</t>
-  </si>
-  <si>
-    <t>19_chongyanggong</t>
-  </si>
-  <si>
-    <t>18_gumu</t>
-  </si>
-  <si>
-    <t>26_heimuya</t>
-  </si>
-  <si>
-    <t>23_hongqigongju</t>
-  </si>
-  <si>
-    <t>53_leigushan</t>
-  </si>
-  <si>
-    <t>54_xuemuhuaju</t>
-  </si>
-  <si>
-    <t>39_lingxiaocheng</t>
-  </si>
-  <si>
-    <t>02_yunheya</t>
-  </si>
-  <si>
-    <t>05_shandong</t>
-  </si>
-  <si>
-    <t>07_shandong</t>
-  </si>
-  <si>
-    <t>10_Shandong</t>
-  </si>
-  <si>
-    <t>13_mingjiaodidao</t>
-  </si>
-  <si>
-    <t>14_gaochangmigong</t>
-  </si>
-  <si>
-    <t>41_shandong</t>
-  </si>
-  <si>
-    <t>65_shandong</t>
-  </si>
-  <si>
-    <t>66_shandong</t>
-  </si>
-  <si>
-    <t>67_shandong</t>
-  </si>
-  <si>
-    <t>79_shandong</t>
-  </si>
-  <si>
-    <t>82_meizhuangdilao</t>
-  </si>
-  <si>
-    <t>83_shengtang</t>
+    <t>昆仑山洞</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Leave</t>
     </r>
     <r>
@@ -431,290 +275,338 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小虾米居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>河洛客栈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡斐居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>田伯光居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>药王庄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>南贤居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎基居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕子坞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天宁寺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅庄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福威镖局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡山派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一灯居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙潭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程英居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨眉派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高升客栈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无量山洞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白驼山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星宿海</t>
-  </si>
-  <si>
-    <t>金轮寺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙门客栈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回族帐篷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教分舵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明顶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08_dalunsi</t>
   </si>
   <si>
     <t>大伦寺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_shamofeixu</t>
   </si>
   <si>
     <t>沙漠废墟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_chengkunju</t>
   </si>
   <si>
     <t>成昆居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>62_pomiao</t>
   </si>
   <si>
     <t>破庙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_youjiankezhan</t>
   </si>
   <si>
     <t>有间客栈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06_beichouju</t>
   </si>
   <si>
     <t>北丑居</t>
   </si>
   <si>
+    <t>72_binghuodao</t>
+  </si>
+  <si>
+    <t>冰火岛</t>
+  </si>
+  <si>
+    <t>71_shenlongjiao</t>
+  </si>
+  <si>
+    <t>神龙教</t>
+  </si>
+  <si>
+    <t>73_lingshedao</t>
+  </si>
+  <si>
+    <t>灵蛇岛</t>
+  </si>
+  <si>
+    <t>78_bonidao</t>
+  </si>
+  <si>
+    <t>渤泥岛</t>
+  </si>
+  <si>
+    <t>75_taohuadao</t>
+  </si>
+  <si>
+    <t>桃花岛</t>
+  </si>
+  <si>
+    <t>77_wanedao</t>
+  </si>
+  <si>
     <t>万鳄岛</t>
   </si>
   <si>
+    <t>76_pilitang</t>
+  </si>
+  <si>
+    <t>霹雳堂</t>
+  </si>
+  <si>
+    <t>74_xiakedao</t>
+  </si>
+  <si>
     <t>侠客岛</t>
   </si>
   <si>
+    <t>29_taishanpai</t>
+  </si>
+  <si>
     <t>泰山派</t>
   </si>
   <si>
+    <t>30_pingyizhiju</t>
+  </si>
+  <si>
     <t>平一指居</t>
   </si>
   <si>
+    <t>24_miaorenfengju</t>
+  </si>
+  <si>
     <t>苗人凤居</t>
   </si>
   <si>
+    <t>32_haibianxiaowu</t>
+  </si>
+  <si>
     <t>海边小屋</t>
   </si>
   <si>
+    <t>44_hudiegu</t>
+  </si>
+  <si>
     <t>蝴蝶谷</t>
   </si>
   <si>
+    <t>51_gaibang</t>
+  </si>
+  <si>
     <t>丐帮</t>
   </si>
   <si>
+    <t>40_yuelaikezhan</t>
+  </si>
+  <si>
     <t>悦来客栈</t>
   </si>
   <si>
+    <t>28_shaolinsi</t>
+  </si>
+  <si>
     <t>少林寺</t>
   </si>
   <si>
+    <t>27_songshanpai</t>
+  </si>
+  <si>
     <t>嵩山派</t>
   </si>
   <si>
+    <t>43_wudangpai</t>
+  </si>
+  <si>
     <t>武当派</t>
   </si>
   <si>
+    <t>36_qingchengpai</t>
+  </si>
+  <si>
     <t>青城派</t>
   </si>
   <si>
+    <t>38_motianya</t>
+  </si>
+  <si>
     <t>摩天崖</t>
   </si>
   <si>
+    <t>34_kongtongpai</t>
+  </si>
+  <si>
     <t>崆峒派</t>
   </si>
   <si>
+    <t>20_baihuagu</t>
+  </si>
+  <si>
     <t>百花谷</t>
   </si>
   <si>
+    <t>22_jueqinggu</t>
+  </si>
+  <si>
     <t>绝情谷</t>
   </si>
   <si>
+    <t>80_jueqinggudi</t>
+  </si>
+  <si>
     <t>绝情谷底</t>
   </si>
   <si>
+    <t>46_jinsheshandong</t>
+  </si>
+  <si>
     <t>金蛇山洞</t>
   </si>
   <si>
+    <t>57_huashanpai</t>
+  </si>
+  <si>
     <t>华山派</t>
   </si>
   <si>
+    <t>81_siguoya</t>
+  </si>
+  <si>
     <t>思过崖</t>
   </si>
   <si>
+    <t>25_wudaodahui</t>
+  </si>
+  <si>
     <t>武道大会</t>
   </si>
   <si>
+    <t>31_hengshanpai</t>
+  </si>
+  <si>
     <t>恒山派</t>
   </si>
   <si>
+    <t>19_chongyanggong</t>
+  </si>
+  <si>
     <t>重阳宫</t>
   </si>
   <si>
+    <t>18_gumu</t>
+  </si>
+  <si>
     <t>古墓派</t>
   </si>
   <si>
+    <t>26_heimuya</t>
+  </si>
+  <si>
     <t>黑木崖</t>
   </si>
   <si>
+    <t>23_hongqigongju</t>
+  </si>
+  <si>
     <t>洪七公居</t>
   </si>
   <si>
+    <t>53_leigushan</t>
+  </si>
+  <si>
     <t>擂鼓山</t>
   </si>
   <si>
+    <t>54_xuemuhuaju</t>
+  </si>
+  <si>
     <t>薛慕华居</t>
   </si>
   <si>
+    <t>39_lingxiaocheng</t>
+  </si>
+  <si>
     <t>雪山派</t>
   </si>
   <si>
+    <t>02_yunheya</t>
+  </si>
+  <si>
     <t>云鹤崖</t>
   </si>
   <si>
+    <t>05_shandong</t>
+  </si>
+  <si>
     <t>闯王山洞</t>
   </si>
   <si>
+    <t>07_shandong</t>
+  </si>
+  <si>
     <t>神雕山洞</t>
   </si>
   <si>
+    <t>10_Shandong</t>
+  </si>
+  <si>
     <t>蜘蛛山洞</t>
   </si>
   <si>
+    <t>13_mingjiaodidao</t>
+  </si>
+  <si>
+    <t>14_gaochangmigong</t>
+  </si>
+  <si>
+    <t>41_shandong</t>
+  </si>
+  <si>
     <t>神秘山洞</t>
   </si>
   <si>
+    <t>65_shandong</t>
+  </si>
+  <si>
     <t>唐诗山洞</t>
   </si>
   <si>
+    <t>66_shandong</t>
+  </si>
+  <si>
     <t>冰蚕山洞</t>
   </si>
   <si>
-    <t>昆仑山洞</t>
+    <t>67_shandong</t>
+  </si>
+  <si>
+    <t>79_shandong</t>
   </si>
   <si>
     <t>鸳鸯山洞</t>
   </si>
   <si>
-    <t>昆仑山洞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅庄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教分舵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠废墟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳堂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>82_meizhuangdilao</t>
+  </si>
+  <si>
+    <t>83_shengtang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -728,9 +620,154 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -739,20 +776,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,8 +800,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -795,24 +1004,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -820,47 +1268,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1189,32 +1680,33 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.775" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2166666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="48" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1250,12 +1742,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>124</v>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
@@ -1267,12 +1759,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>125</v>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1281,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1290,12 +1782,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>126</v>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1304,12 +1796,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>127</v>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>59</v>
@@ -1318,12 +1810,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>128</v>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>49</v>
@@ -1332,12 +1824,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>129</v>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="5">
         <v>64</v>
@@ -1346,12 +1838,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>130</v>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>50</v>
@@ -1360,12 +1852,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>131</v>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>52</v>
@@ -1374,12 +1866,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>132</v>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>63</v>
@@ -1388,12 +1880,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>133</v>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>55</v>
@@ -1402,12 +1894,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>134</v>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>56</v>
@@ -1416,12 +1908,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>135</v>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="2">
         <v>58</v>
@@ -1430,12 +1922,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>136</v>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>47</v>
@@ -1444,12 +1936,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>137</v>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
@@ -1458,12 +1950,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>138</v>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>48</v>
@@ -1472,12 +1964,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>139</v>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>45</v>
@@ -1486,12 +1978,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>140</v>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="2">
         <v>37</v>
@@ -1500,12 +1992,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>141</v>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="5">
         <v>33</v>
@@ -1514,12 +2006,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>142</v>
+      <c r="B22" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
@@ -1528,12 +2020,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>143</v>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="2">
         <v>42</v>
@@ -1542,12 +2034,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>144</v>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="2">
         <v>69</v>
@@ -1556,733 +2048,733 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>145</v>
+      <c r="B25" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>146</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>147</v>
+        <v>59</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>148</v>
+        <v>61</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>149</v>
+        <v>63</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>150</v>
+        <v>65</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>151</v>
+        <v>67</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>197</v>
+        <v>69</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>152</v>
+        <v>72</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>153</v>
+        <v>74</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C34" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>154</v>
+        <v>76</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C36" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2">
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2">
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2">
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2">
         <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>111</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="6">
+        <v>159</v>
+      </c>
+      <c r="C76" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>112</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="6">
+        <v>161</v>
+      </c>
+      <c r="C77" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>113</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="6">
+        <v>163</v>
+      </c>
+      <c r="C78" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>114</v>
+    <row r="79" spans="1:5">
+      <c r="A79" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" s="7">
+        <v>64</v>
+      </c>
+      <c r="C79" s="8">
         <v>13</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>115</v>
+      <c r="E79" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="7">
+        <v>75</v>
+      </c>
+      <c r="C80" s="8">
         <v>14</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>116</v>
+      <c r="E80" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="6">
+        <v>167</v>
+      </c>
+      <c r="C81" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>117</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="6">
+        <v>169</v>
+      </c>
+      <c r="C82" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>118</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" s="6">
+        <v>171</v>
+      </c>
+      <c r="C83" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>119</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="6">
+        <v>70</v>
+      </c>
+      <c r="C84" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>120</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C85" s="6">
+        <v>174</v>
+      </c>
+      <c r="C85" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>121</v>
+    <row r="86" spans="1:5">
+      <c r="A86" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="7">
+        <v>32</v>
+      </c>
+      <c r="C86" s="8">
         <v>82</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>122</v>
+      <c r="E86" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="7">
+        <v>97</v>
+      </c>
+      <c r="C87" s="8">
         <v>83</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>123</v>
+      <c r="E87" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="179">
   <si>
     <t>Key</t>
   </si>
@@ -207,6 +207,9 @@
     <t>无量山洞</t>
   </si>
   <si>
+    <t>POINTLIGHT</t>
+  </si>
+  <si>
     <t>69_baituoshan</t>
   </si>
   <si>
@@ -259,6 +262,321 @@
   </si>
   <si>
     <t>昆仑山洞</t>
+  </si>
+  <si>
+    <t>Leave2,POINTLIGHT</t>
+  </si>
+  <si>
+    <t>08_dalunsi</t>
+  </si>
+  <si>
+    <t>大伦寺</t>
+  </si>
+  <si>
+    <t>15_shamofeixu</t>
+  </si>
+  <si>
+    <t>沙漠废墟</t>
+  </si>
+  <si>
+    <t>09_chengkunju</t>
+  </si>
+  <si>
+    <t>成昆居</t>
+  </si>
+  <si>
+    <t>62_pomiao</t>
+  </si>
+  <si>
+    <t>破庙</t>
+  </si>
+  <si>
+    <t>03_youjiankezhan</t>
+  </si>
+  <si>
+    <t>有间客栈</t>
+  </si>
+  <si>
+    <t>06_beichouju</t>
+  </si>
+  <si>
+    <t>北丑居</t>
+  </si>
+  <si>
+    <t>72_binghuodao</t>
+  </si>
+  <si>
+    <t>冰火岛</t>
+  </si>
+  <si>
+    <t>71_shenlongjiao</t>
+  </si>
+  <si>
+    <t>神龙教</t>
+  </si>
+  <si>
+    <t>73_lingshedao</t>
+  </si>
+  <si>
+    <t>灵蛇岛</t>
+  </si>
+  <si>
+    <t>78_bonidao</t>
+  </si>
+  <si>
+    <t>渤泥岛</t>
+  </si>
+  <si>
+    <t>75_taohuadao</t>
+  </si>
+  <si>
+    <t>桃花岛</t>
+  </si>
+  <si>
+    <t>77_wanedao</t>
+  </si>
+  <si>
+    <t>万鳄岛</t>
+  </si>
+  <si>
+    <t>76_pilitang</t>
+  </si>
+  <si>
+    <t>霹雳堂</t>
+  </si>
+  <si>
+    <t>74_xiakedao</t>
+  </si>
+  <si>
+    <t>侠客岛</t>
+  </si>
+  <si>
+    <t>29_taishanpai</t>
+  </si>
+  <si>
+    <t>泰山派</t>
+  </si>
+  <si>
+    <t>30_pingyizhiju</t>
+  </si>
+  <si>
+    <t>平一指居</t>
+  </si>
+  <si>
+    <t>24_miaorenfengju</t>
+  </si>
+  <si>
+    <t>苗人凤居</t>
+  </si>
+  <si>
+    <t>32_haibianxiaowu</t>
+  </si>
+  <si>
+    <t>海边小屋</t>
+  </si>
+  <si>
+    <t>44_hudiegu</t>
+  </si>
+  <si>
+    <t>蝴蝶谷</t>
+  </si>
+  <si>
+    <t>51_gaibang</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>40_yuelaikezhan</t>
+  </si>
+  <si>
+    <t>悦来客栈</t>
+  </si>
+  <si>
+    <t>28_shaolinsi</t>
+  </si>
+  <si>
+    <t>少林寺</t>
+  </si>
+  <si>
+    <t>27_songshanpai</t>
+  </si>
+  <si>
+    <t>嵩山派</t>
+  </si>
+  <si>
+    <t>43_wudangpai</t>
+  </si>
+  <si>
+    <t>武当派</t>
+  </si>
+  <si>
+    <t>36_qingchengpai</t>
+  </si>
+  <si>
+    <t>青城派</t>
+  </si>
+  <si>
+    <t>38_motianya</t>
+  </si>
+  <si>
+    <t>摩天崖</t>
+  </si>
+  <si>
+    <t>34_kongtongpai</t>
+  </si>
+  <si>
+    <t>崆峒派</t>
+  </si>
+  <si>
+    <t>20_baihuagu</t>
+  </si>
+  <si>
+    <t>百花谷</t>
+  </si>
+  <si>
+    <t>22_jueqinggu</t>
+  </si>
+  <si>
+    <t>绝情谷</t>
+  </si>
+  <si>
+    <t>80_jueqinggudi</t>
+  </si>
+  <si>
+    <t>绝情谷底</t>
+  </si>
+  <si>
+    <t>46_jinsheshandong</t>
+  </si>
+  <si>
+    <t>金蛇山洞</t>
+  </si>
+  <si>
+    <t>57_huashanpai</t>
+  </si>
+  <si>
+    <t>华山派</t>
+  </si>
+  <si>
+    <t>81_siguoya</t>
+  </si>
+  <si>
+    <t>思过崖</t>
+  </si>
+  <si>
+    <t>25_wudaodahui</t>
+  </si>
+  <si>
+    <t>武道大会</t>
+  </si>
+  <si>
+    <t>31_hengshanpai</t>
+  </si>
+  <si>
+    <t>恒山派</t>
+  </si>
+  <si>
+    <t>19_chongyanggong</t>
+  </si>
+  <si>
+    <t>重阳宫</t>
+  </si>
+  <si>
+    <t>18_gumu</t>
+  </si>
+  <si>
+    <t>古墓派</t>
+  </si>
+  <si>
+    <t>26_heimuya</t>
+  </si>
+  <si>
+    <t>黑木崖</t>
+  </si>
+  <si>
+    <t>23_hongqigongju</t>
+  </si>
+  <si>
+    <t>洪七公居</t>
+  </si>
+  <si>
+    <t>53_leigushan</t>
+  </si>
+  <si>
+    <t>擂鼓山</t>
+  </si>
+  <si>
+    <t>54_xuemuhuaju</t>
+  </si>
+  <si>
+    <t>薛慕华居</t>
+  </si>
+  <si>
+    <t>39_lingxiaocheng</t>
+  </si>
+  <si>
+    <t>雪山派</t>
+  </si>
+  <si>
+    <t>02_yunheya</t>
+  </si>
+  <si>
+    <t>云鹤崖</t>
+  </si>
+  <si>
+    <t>05_shandong</t>
+  </si>
+  <si>
+    <t>闯王山洞</t>
+  </si>
+  <si>
+    <t>07_shandong</t>
+  </si>
+  <si>
+    <t>神雕山洞</t>
+  </si>
+  <si>
+    <t>10_Shandong</t>
+  </si>
+  <si>
+    <t>蜘蛛山洞</t>
+  </si>
+  <si>
+    <t>13_mingjiaodidao</t>
+  </si>
+  <si>
+    <t>14_gaochangmigong</t>
+  </si>
+  <si>
+    <t>41_shandong</t>
+  </si>
+  <si>
+    <t>神秘山洞</t>
+  </si>
+  <si>
+    <t>65_shandong</t>
+  </si>
+  <si>
+    <t>唐诗山洞</t>
+  </si>
+  <si>
+    <t>66_shandong</t>
+  </si>
+  <si>
+    <t>冰蚕山洞</t>
+  </si>
+  <si>
+    <t>67_shandong</t>
+  </si>
+  <si>
+    <t>79_shandong</t>
+  </si>
+  <si>
+    <t>鸳鸯山洞</t>
+  </si>
+  <si>
+    <t>82_meizhuangdilao</t>
   </si>
   <si>
     <r>
@@ -281,318 +599,6 @@
     </r>
   </si>
   <si>
-    <t>08_dalunsi</t>
-  </si>
-  <si>
-    <t>大伦寺</t>
-  </si>
-  <si>
-    <t>15_shamofeixu</t>
-  </si>
-  <si>
-    <t>沙漠废墟</t>
-  </si>
-  <si>
-    <t>09_chengkunju</t>
-  </si>
-  <si>
-    <t>成昆居</t>
-  </si>
-  <si>
-    <t>62_pomiao</t>
-  </si>
-  <si>
-    <t>破庙</t>
-  </si>
-  <si>
-    <t>03_youjiankezhan</t>
-  </si>
-  <si>
-    <t>有间客栈</t>
-  </si>
-  <si>
-    <t>06_beichouju</t>
-  </si>
-  <si>
-    <t>北丑居</t>
-  </si>
-  <si>
-    <t>72_binghuodao</t>
-  </si>
-  <si>
-    <t>冰火岛</t>
-  </si>
-  <si>
-    <t>71_shenlongjiao</t>
-  </si>
-  <si>
-    <t>神龙教</t>
-  </si>
-  <si>
-    <t>73_lingshedao</t>
-  </si>
-  <si>
-    <t>灵蛇岛</t>
-  </si>
-  <si>
-    <t>78_bonidao</t>
-  </si>
-  <si>
-    <t>渤泥岛</t>
-  </si>
-  <si>
-    <t>75_taohuadao</t>
-  </si>
-  <si>
-    <t>桃花岛</t>
-  </si>
-  <si>
-    <t>77_wanedao</t>
-  </si>
-  <si>
-    <t>万鳄岛</t>
-  </si>
-  <si>
-    <t>76_pilitang</t>
-  </si>
-  <si>
-    <t>霹雳堂</t>
-  </si>
-  <si>
-    <t>74_xiakedao</t>
-  </si>
-  <si>
-    <t>侠客岛</t>
-  </si>
-  <si>
-    <t>29_taishanpai</t>
-  </si>
-  <si>
-    <t>泰山派</t>
-  </si>
-  <si>
-    <t>30_pingyizhiju</t>
-  </si>
-  <si>
-    <t>平一指居</t>
-  </si>
-  <si>
-    <t>24_miaorenfengju</t>
-  </si>
-  <si>
-    <t>苗人凤居</t>
-  </si>
-  <si>
-    <t>32_haibianxiaowu</t>
-  </si>
-  <si>
-    <t>海边小屋</t>
-  </si>
-  <si>
-    <t>44_hudiegu</t>
-  </si>
-  <si>
-    <t>蝴蝶谷</t>
-  </si>
-  <si>
-    <t>51_gaibang</t>
-  </si>
-  <si>
-    <t>丐帮</t>
-  </si>
-  <si>
-    <t>40_yuelaikezhan</t>
-  </si>
-  <si>
-    <t>悦来客栈</t>
-  </si>
-  <si>
-    <t>28_shaolinsi</t>
-  </si>
-  <si>
-    <t>少林寺</t>
-  </si>
-  <si>
-    <t>27_songshanpai</t>
-  </si>
-  <si>
-    <t>嵩山派</t>
-  </si>
-  <si>
-    <t>43_wudangpai</t>
-  </si>
-  <si>
-    <t>武当派</t>
-  </si>
-  <si>
-    <t>36_qingchengpai</t>
-  </si>
-  <si>
-    <t>青城派</t>
-  </si>
-  <si>
-    <t>38_motianya</t>
-  </si>
-  <si>
-    <t>摩天崖</t>
-  </si>
-  <si>
-    <t>34_kongtongpai</t>
-  </si>
-  <si>
-    <t>崆峒派</t>
-  </si>
-  <si>
-    <t>20_baihuagu</t>
-  </si>
-  <si>
-    <t>百花谷</t>
-  </si>
-  <si>
-    <t>22_jueqinggu</t>
-  </si>
-  <si>
-    <t>绝情谷</t>
-  </si>
-  <si>
-    <t>80_jueqinggudi</t>
-  </si>
-  <si>
-    <t>绝情谷底</t>
-  </si>
-  <si>
-    <t>46_jinsheshandong</t>
-  </si>
-  <si>
-    <t>金蛇山洞</t>
-  </si>
-  <si>
-    <t>57_huashanpai</t>
-  </si>
-  <si>
-    <t>华山派</t>
-  </si>
-  <si>
-    <t>81_siguoya</t>
-  </si>
-  <si>
-    <t>思过崖</t>
-  </si>
-  <si>
-    <t>25_wudaodahui</t>
-  </si>
-  <si>
-    <t>武道大会</t>
-  </si>
-  <si>
-    <t>31_hengshanpai</t>
-  </si>
-  <si>
-    <t>恒山派</t>
-  </si>
-  <si>
-    <t>19_chongyanggong</t>
-  </si>
-  <si>
-    <t>重阳宫</t>
-  </si>
-  <si>
-    <t>18_gumu</t>
-  </si>
-  <si>
-    <t>古墓派</t>
-  </si>
-  <si>
-    <t>26_heimuya</t>
-  </si>
-  <si>
-    <t>黑木崖</t>
-  </si>
-  <si>
-    <t>23_hongqigongju</t>
-  </si>
-  <si>
-    <t>洪七公居</t>
-  </si>
-  <si>
-    <t>53_leigushan</t>
-  </si>
-  <si>
-    <t>擂鼓山</t>
-  </si>
-  <si>
-    <t>54_xuemuhuaju</t>
-  </si>
-  <si>
-    <t>薛慕华居</t>
-  </si>
-  <si>
-    <t>39_lingxiaocheng</t>
-  </si>
-  <si>
-    <t>雪山派</t>
-  </si>
-  <si>
-    <t>02_yunheya</t>
-  </si>
-  <si>
-    <t>云鹤崖</t>
-  </si>
-  <si>
-    <t>05_shandong</t>
-  </si>
-  <si>
-    <t>闯王山洞</t>
-  </si>
-  <si>
-    <t>07_shandong</t>
-  </si>
-  <si>
-    <t>神雕山洞</t>
-  </si>
-  <si>
-    <t>10_Shandong</t>
-  </si>
-  <si>
-    <t>蜘蛛山洞</t>
-  </si>
-  <si>
-    <t>13_mingjiaodidao</t>
-  </si>
-  <si>
-    <t>14_gaochangmigong</t>
-  </si>
-  <si>
-    <t>41_shandong</t>
-  </si>
-  <si>
-    <t>神秘山洞</t>
-  </si>
-  <si>
-    <t>65_shandong</t>
-  </si>
-  <si>
-    <t>唐诗山洞</t>
-  </si>
-  <si>
-    <t>66_shandong</t>
-  </si>
-  <si>
-    <t>冰蚕山洞</t>
-  </si>
-  <si>
-    <t>67_shandong</t>
-  </si>
-  <si>
-    <t>79_shandong</t>
-  </si>
-  <si>
-    <t>鸳鸯山洞</t>
-  </si>
-  <si>
-    <t>82_meizhuangdilao</t>
-  </si>
-  <si>
     <t>83_shengtang</t>
   </si>
 </sst>
@@ -601,12 +607,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -621,13 +627,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,13 +648,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -656,14 +656,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,9 +670,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,18 +717,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,45 +748,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -771,15 +756,30 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -802,79 +802,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,97 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,37 +1020,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,21 +1059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1102,6 +1067,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1110,10 +1110,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,7 +1122,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,7 +1131,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,115 +1149,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1283,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,9 +1689,9 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2020,7 +2020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2033,27 +2033,30 @@
       <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
         <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>35</v>
@@ -2061,10 +2064,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2">
         <v>16</v>
@@ -2072,10 +2075,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
@@ -2083,10 +2086,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
@@ -2094,10 +2097,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
@@ -2105,10 +2108,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
@@ -2116,10 +2119,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2">
         <v>68</v>
@@ -2127,24 +2130,24 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
@@ -2152,10 +2155,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5">
         <v>15</v>
@@ -2163,10 +2166,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
@@ -2174,10 +2177,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2">
         <v>62</v>
@@ -2185,10 +2188,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -2196,91 +2199,94 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2">
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2">
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2">
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2">
         <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2">
         <v>77</v>
@@ -2288,10 +2294,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
@@ -2299,10 +2305,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
@@ -2310,10 +2316,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
@@ -2321,10 +2327,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -2332,10 +2338,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
@@ -2343,10 +2349,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
@@ -2354,10 +2360,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
@@ -2365,10 +2371,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
@@ -2376,10 +2382,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -2387,10 +2393,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
@@ -2398,10 +2404,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
@@ -2409,10 +2415,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
@@ -2420,10 +2426,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
@@ -2431,10 +2437,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
@@ -2442,10 +2448,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
@@ -2453,10 +2459,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
@@ -2464,10 +2470,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
@@ -2475,32 +2481,35 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
       </c>
+      <c r="E63" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
@@ -2508,10 +2517,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
@@ -2519,10 +2528,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
@@ -2530,10 +2539,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
@@ -2541,32 +2550,35 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
+      <c r="E69" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
@@ -2574,10 +2586,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
@@ -2585,10 +2597,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
@@ -2596,10 +2608,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2607,10 +2619,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
@@ -2618,134 +2630,158 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:5">
       <c r="A76" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="E76" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="E77" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C78" s="7">
         <v>10</v>
       </c>
+      <c r="E78" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C79" s="8">
         <v>13</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="8">
         <v>14</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="E81" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="E82" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="E83" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C84" s="7">
         <v>67</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="E84" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C85" s="7">
         <v>79</v>
       </c>
+      <c r="E85" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>32</v>
@@ -2754,21 +2790,21 @@
         <v>82</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C87" s="8">
         <v>83</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
   <si>
     <t>Key</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>标签</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>开场剧情</t>
   </si>
   <si>
     <t>0_BigMap</t>
@@ -608,9 +602,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -627,14 +621,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,31 +642,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,11 +670,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,21 +695,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -748,6 +717,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -763,23 +764,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -802,181 +796,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,17 +1014,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,35 +1071,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,10 +1104,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,7 +1116,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,10 +1125,10 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1143,121 +1137,121 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1686,27 +1680,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.775" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.1083333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.6666666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.2166666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="48" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1722,341 +1714,335 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5">
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5">
         <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2">
         <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2">
         <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2">
         <v>35</v>
@@ -2064,10 +2050,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
         <v>16</v>
@@ -2075,10 +2061,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
@@ -2086,10 +2072,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
@@ -2097,10 +2083,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
@@ -2108,10 +2094,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
@@ -2119,10 +2105,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2">
         <v>68</v>
@@ -2130,24 +2116,24 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
@@ -2155,10 +2141,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="5">
         <v>15</v>
@@ -2166,10 +2152,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
@@ -2177,10 +2163,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2">
         <v>62</v>
@@ -2188,10 +2174,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -2199,10 +2185,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
@@ -2210,83 +2196,83 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2">
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2">
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2">
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2">
         <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2">
         <v>77</v>
@@ -2294,10 +2280,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
@@ -2305,10 +2291,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
@@ -2316,10 +2302,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
@@ -2327,10 +2313,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -2338,10 +2324,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
@@ -2349,10 +2335,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
@@ -2360,10 +2346,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
@@ -2371,10 +2357,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
@@ -2382,10 +2368,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -2393,10 +2379,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
@@ -2404,10 +2390,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
@@ -2415,10 +2401,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
@@ -2426,10 +2412,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
@@ -2437,10 +2423,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
@@ -2448,10 +2434,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
@@ -2459,10 +2445,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
@@ -2470,10 +2456,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
@@ -2481,10 +2467,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
@@ -2492,24 +2478,24 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
@@ -2517,10 +2503,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
@@ -2528,10 +2514,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
@@ -2539,10 +2525,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
@@ -2550,10 +2536,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
@@ -2561,24 +2547,24 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
@@ -2586,10 +2572,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
@@ -2597,10 +2583,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
@@ -2608,10 +2594,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2619,10 +2605,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
@@ -2630,10 +2616,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -2641,170 +2627,170 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C76" s="7">
         <v>5</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C77" s="7">
         <v>7</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" s="7">
         <v>10</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C79" s="8">
         <v>13</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" s="8">
         <v>14</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" s="7">
         <v>41</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C82" s="7">
         <v>65</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C83" s="7">
         <v>66</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C84" s="7">
         <v>67</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="7">
         <v>79</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86" s="8">
         <v>82</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C87" s="8">
         <v>83</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5531BB-2B8E-49B5-BC2B-B05832AC6484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>cg</author>
   </authors>
   <commentList>
-    <comment ref="A81" authorId="0">
+    <comment ref="A81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="178">
   <si>
     <t>Key</t>
   </si>
@@ -595,18 +601,16 @@
   <si>
     <t>83_shengtang</t>
   </si>
+  <si>
+    <t>Leave2,POINTLIGHT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -620,150 +624,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -774,8 +634,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,188 +660,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -998,263 +684,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,90 +709,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1674,31 +1078,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.775" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.2166666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1768,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1796,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1824,7 +1227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1838,7 +1241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1852,7 +1255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1866,7 +1269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1894,7 +1297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1908,7 +1311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1922,7 +1325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1936,7 +1339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1950,7 +1353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +1367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -1978,7 +1381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +1395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -2006,7 +1409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -2023,7 +1426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -2037,7 +1440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -2048,7 +1451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -2059,7 +1462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -2070,7 +1473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -2081,7 +1484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -2092,7 +1495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2103,7 +1506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -2114,7 +1517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -2125,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -2139,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -2150,7 +1553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -2161,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -2172,7 +1575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -2183,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2194,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2211,7 +1614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2225,7 +1628,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -2239,7 +1642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
@@ -2253,7 +1656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -2267,7 +1670,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -2278,7 +1681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -2289,7 +1692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>97</v>
       </c>
@@ -2300,7 +1703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -2311,7 +1714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
@@ -2322,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2333,7 +1736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -2344,7 +1747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>107</v>
       </c>
@@ -2355,7 +1758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>109</v>
       </c>
@@ -2366,7 +1769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>111</v>
       </c>
@@ -2377,7 +1780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>113</v>
       </c>
@@ -2388,7 +1791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>115</v>
       </c>
@@ -2399,7 +1802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>117</v>
       </c>
@@ -2410,7 +1813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>119</v>
       </c>
@@ -2421,7 +1824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>121</v>
       </c>
@@ -2432,7 +1835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>123</v>
       </c>
@@ -2443,7 +1846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
@@ -2454,7 +1857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>127</v>
       </c>
@@ -2465,7 +1868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
@@ -2476,7 +1879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
@@ -2490,7 +1893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
@@ -2501,7 +1904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
@@ -2512,7 +1915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
@@ -2523,7 +1926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
@@ -2534,7 +1937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
@@ -2545,7 +1948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>143</v>
       </c>
@@ -2559,7 +1962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>145</v>
       </c>
@@ -2570,7 +1973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>147</v>
       </c>
@@ -2581,7 +1984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>149</v>
       </c>
@@ -2592,7 +1995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>151</v>
       </c>
@@ -2603,7 +2006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>153</v>
       </c>
@@ -2614,7 +2017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -2625,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>157</v>
       </c>
@@ -2639,7 +2042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>159</v>
       </c>
@@ -2653,7 +2056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>161</v>
       </c>
@@ -2667,7 +2070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>163</v>
       </c>
@@ -2681,7 +2084,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>164</v>
       </c>
@@ -2695,7 +2098,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>165</v>
       </c>
@@ -2709,7 +2112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
@@ -2723,7 +2126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>169</v>
       </c>
@@ -2737,7 +2140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>171</v>
       </c>
@@ -2751,7 +2154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>172</v>
       </c>
@@ -2765,7 +2168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>174</v>
       </c>
@@ -2779,7 +2182,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>176</v>
       </c>
@@ -2794,9 +2197,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5531BB-2B8E-49B5-BC2B-B05832AC6484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D3F1D-E60A-4C09-980B-777C630BD982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
   <si>
     <t>Key</t>
   </si>
@@ -600,6 +600,14 @@
   </si>
   <si>
     <t>83_shengtang</t>
+  </si>
+  <si>
+    <t>Leave2,POINTLIGHT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTLIGHT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Leave2,POINTLIGHT</t>
@@ -1087,8 +1095,8 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2173,7 @@
         <v>79</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,7 +2201,7 @@
         <v>83</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
